--- a/datasets/backup/all_data_0318_2.xlsx
+++ b/datasets/backup/all_data_0318_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CognitiveEncoding\datasets\clean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CognitiveEncoding\datasets\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763AEA3-A2A0-432B-83F7-C4B814D1FA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD18A1-1A19-45C9-BD6E-0C18A10FA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="0" windowWidth="46800" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15207,6 +15207,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15564,12 +15565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" topLeftCell="A2117" workbookViewId="0">
+      <selection activeCell="G2144" sqref="G2144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="89.25" customWidth="1"/>
     <col min="5" max="5" width="9.125" customWidth="1"/>
